--- a/result/7月/表2-近五年上海重点产品出口金额及增长情况.xlsx
+++ b/result/7月/表2-近五年上海重点产品出口金额及增长情况.xlsx
@@ -1,43 +1,448 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>上海同比</t>
+  </si>
+  <si>
+    <t>上海进出口该商品金额</t>
+  </si>
+  <si>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>太阳能电池</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>机电产品</t>
+  </si>
+  <si>
+    <t>汽车零配件</t>
+  </si>
+  <si>
+    <t>生命科学技术</t>
+  </si>
+  <si>
+    <t>电动载人汽车</t>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+  </si>
+  <si>
+    <t>自动数据处理设备及其零部件</t>
+  </si>
+  <si>
+    <t>锂离子蓄电池</t>
+  </si>
+  <si>
+    <t>集成电路</t>
+  </si>
+  <si>
+    <t>高新技术产品</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,121 +451,330 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,555 +1057,554 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="31.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" customWidth="1"/>
+    <col min="3" max="7" width="7.66666666666667" customWidth="1"/>
+    <col min="8" max="9" width="8.66666666666667" customWidth="1"/>
+    <col min="10" max="12" width="9.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="8.66666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>上海同比</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>上海进出口该商品金额</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>年份</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>2019</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>2020</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>2021</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>2022</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>2023</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>2024</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>2019</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>2020</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>2021</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>2022</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="1">
         <v>2023</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>商品</t>
-        </is>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>太阳能电池</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
         <v>-5.87</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2">
         <v>-22.96</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2">
         <v>29.22</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2">
         <v>47.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2">
         <v>0.85</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2">
         <v>-48.22</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2">
         <v>58.37</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2">
         <v>44.97</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2">
         <v>58.2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="2">
         <v>85.83</v>
       </c>
-      <c r="L4" t="n">
-        <v>86.56999999999999</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" s="2">
+        <v>86.57</v>
+      </c>
+      <c r="M4" s="2">
         <v>32.38</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>手机</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>-7.24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2">
         <v>-24.18</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2">
         <v>-2.64</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2">
         <v>-17.81</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2">
         <v>-43.18</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>820.88</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="2">
         <v>622.38</v>
       </c>
-      <c r="K5" t="n">
-        <v>605.9299999999999</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="K5" s="2">
+        <v>605.93</v>
+      </c>
+      <c r="L5" s="2">
         <v>498.04</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="2">
         <v>175.04</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>机电产品</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.09</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2">
         <v>0.11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2">
         <v>13.97</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2">
         <v>8.67</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2">
         <v>2.84</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2">
         <v>1.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>9488.110000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9477.610000000001</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="2">
+        <v>9488.11</v>
+      </c>
+      <c r="I6" s="2">
+        <v>9477.61</v>
+      </c>
+      <c r="J6" s="2">
         <v>10800.46</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="2">
         <v>11735.75</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="2">
         <v>12066.72</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="2">
         <v>6982.39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>汽车零配件</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
         <v>-3.31</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2">
         <v>-8.68</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2">
         <v>19.59</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2">
         <v>5.95</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2">
         <v>12.19</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2">
         <v>6.96</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2">
         <v>343.98</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="2">
         <v>378.63</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="2">
         <v>452.33</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="2">
         <v>479.18</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="2">
         <v>537.37</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="2">
         <v>331.16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>生命科学技术</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2">
         <v>8.58</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2">
         <v>21.3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2">
         <v>14.37</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2">
         <v>-5.86</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2">
         <v>10.71</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2">
         <v>277.09</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="2">
         <v>300.85</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="2">
         <v>364.92</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="2">
         <v>417.33</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="2">
         <v>393.22</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="2">
         <v>246.26</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>电动载人汽车</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
         <v>2494.83</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>130.06</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2">
         <v>43.94</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2">
         <v>-27.15</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2">
         <v>16.71</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="I9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>839.86</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="2">
         <v>1208.92</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="2">
         <v>560.96</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>笔记本电脑</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>31.51</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2">
         <v>6.27</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2">
         <v>23.26</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2">
         <v>-49.08</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2">
         <v>-13.2</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
+      <c r="H10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>892.11</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="2">
         <v>948.1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="2">
         <v>1168.64</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="2">
         <v>595.02</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="2">
         <v>313.56</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>自动数据处理设备及其零部件</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
         <v>-1.6</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2">
         <v>8.59</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2">
         <v>2.89</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2">
         <v>3.1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2">
         <v>-32.1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2">
         <v>7.1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2">
         <v>1491.34</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="2">
         <v>1877.44</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="2">
         <v>1931.76</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="2">
         <v>1991.69</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="2">
         <v>1352.3</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="2">
         <v>806.48</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>锂离子蓄电池</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
         <v>45.82</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2">
         <v>89.8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2">
         <v>360.82</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2">
         <v>50.54</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2">
         <v>-5.5</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>29.16</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="2">
         <v>55.14</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="2">
         <v>254.08</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="2">
         <v>382.38</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="2">
         <v>215.15</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>集成电路</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
         <v>24.82</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2">
         <v>15.41</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2">
         <v>11.17</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2">
         <v>-2.6</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2">
         <v>11.86</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2">
         <v>4.62</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2">
         <v>1318.46</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="2">
         <v>1521.73</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="2">
         <v>1691.73</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="2">
         <v>1647.71</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="2">
         <v>1842.92</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="2">
         <v>1056.89</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>高新技术产品</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
         <v>-1.65</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2">
         <v>2.39</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2">
         <v>4.67</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2">
         <v>3.02</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2">
         <v>-7.53</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2">
         <v>-2.44</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2">
         <v>5647.2</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="2">
         <v>5782.06</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="2">
         <v>6051.82</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="2">
         <v>6234.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="2">
         <v>5765.13</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="2">
         <v>3200.06</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>